--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/119.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/119.xlsx
@@ -479,13 +479,13 @@
         <v>0.06386549700201816</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.394201886120793</v>
+        <v>-1.315159262623268</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1252380410298903</v>
+        <v>0.1362643242124328</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1117384363813485</v>
+        <v>0.09526471377162565</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.08419872445893048</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.348302354286896</v>
+        <v>-1.290134038345093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0357721342113689</v>
+        <v>0.04232483004336714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1429119231703401</v>
+        <v>0.1273901519158898</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09604800242581067</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.360079102188165</v>
+        <v>-1.300417157049363</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04887707395524473</v>
+        <v>-0.03107324753470406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1311950372407978</v>
+        <v>0.1056558760346229</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.08892653234749917</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.377087202399161</v>
+        <v>-1.348790010349259</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.06279717245396826</v>
+        <v>-0.03745365769197508</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1362424234910692</v>
+        <v>0.1155593822352566</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.05978855153888501</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.391846828550157</v>
+        <v>-1.38460499001925</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05216656230406203</v>
+        <v>-0.01969363271416166</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1386208418311595</v>
+        <v>0.1162339244532564</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.01248795497163564</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.262120095624828</v>
+        <v>-1.242235700674742</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0417481110474582</v>
+        <v>0.09977042218016989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08390407957626507</v>
+        <v>0.05589743709645441</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04089976572560219</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9528468688161839</v>
+        <v>-0.9390318937800057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1587446846681541</v>
+        <v>0.2077468186952318</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04083266089445845</v>
+        <v>0.01499564987773811</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08231109936379409</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5474134146922017</v>
+        <v>-0.5406577721755672</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2339751226003157</v>
+        <v>0.2791095892345763</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02198736826497923</v>
+        <v>-0.05228628624751654</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08615783678522076</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0800899820426909</v>
+        <v>-0.09259967408559663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2303600435272257</v>
+        <v>0.2766873694517588</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01615301609370806</v>
+        <v>-0.03979703487788354</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03159091376525108</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6062742453492157</v>
+        <v>0.6011319559730353</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06604623137636077</v>
+        <v>0.1055142513698047</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06366736111614986</v>
+        <v>-0.09110020469623339</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.09772489186184416</v>
       </c>
       <c r="E12" t="n">
-        <v>1.377103714848281</v>
+        <v>1.38783506831646</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2644604748183687</v>
+        <v>-0.2291273110183782</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01999777463719132</v>
+        <v>0.008529096883103488</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3063102531811044</v>
       </c>
       <c r="E13" t="n">
-        <v>2.086409677892636</v>
+        <v>2.082531790163183</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6986466559966157</v>
+        <v>-0.6864275135238008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1279989919697987</v>
+        <v>0.1356496439661602</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5829446935650828</v>
       </c>
       <c r="E14" t="n">
-        <v>2.805115430546262</v>
+        <v>2.80384372865908</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.229206231511473</v>
+        <v>-1.264184603625373</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2372456303239512</v>
+        <v>0.2371171460919512</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9055322235609252</v>
       </c>
       <c r="E15" t="n">
-        <v>3.498125796847985</v>
+        <v>3.496154731925258</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.807724736692454</v>
+        <v>-1.842530823131627</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3919231250748187</v>
+        <v>0.4022865464240887</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.247396342920222</v>
       </c>
       <c r="E16" t="n">
-        <v>4.090205958721371</v>
+        <v>4.098626056061642</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.461439368675461</v>
+        <v>-2.509620225651402</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5823017157445858</v>
+        <v>0.6071473541075791</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.589937382795308</v>
       </c>
       <c r="E17" t="n">
-        <v>4.66403697950649</v>
+        <v>4.683534461712484</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.111344735189286</v>
+        <v>-3.147315940005003</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7998255205205274</v>
+        <v>0.8174804220357954</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.917162532732247</v>
       </c>
       <c r="E18" t="n">
-        <v>5.235350877382881</v>
+        <v>5.250252128198696</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.8049588313766</v>
+        <v>-3.838366191744682</v>
       </c>
       <c r="G18" t="n">
-        <v>1.044538340845371</v>
+        <v>1.069567945267819</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.208373106966392</v>
       </c>
       <c r="E19" t="n">
-        <v>5.750295238565471</v>
+        <v>5.771162245880738</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.413486434994073</v>
+        <v>-4.451142535306699</v>
       </c>
       <c r="G19" t="n">
-        <v>1.267267217065402</v>
+        <v>1.303435528373392</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.449285387489583</v>
       </c>
       <c r="E20" t="n">
-        <v>6.138697231709003</v>
+        <v>6.137914645932276</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.987859133620918</v>
+        <v>-4.986867030943146</v>
       </c>
       <c r="G20" t="n">
-        <v>1.465791416034349</v>
+        <v>1.508110909949337</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.631644702118729</v>
       </c>
       <c r="E21" t="n">
-        <v>6.446006693835375</v>
+        <v>6.487161069373818</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.419668356507167</v>
+        <v>-5.393521815295173</v>
       </c>
       <c r="G21" t="n">
-        <v>1.688896984661834</v>
+        <v>1.729471721108187</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.754684587725463</v>
       </c>
       <c r="E22" t="n">
-        <v>6.757652498791746</v>
+        <v>6.80786939283046</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.615585639609796</v>
+        <v>-5.589964715710529</v>
       </c>
       <c r="G22" t="n">
-        <v>1.77841837330781</v>
+        <v>1.805129953130985</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.82522786822813</v>
       </c>
       <c r="E23" t="n">
-        <v>6.947774120997513</v>
+        <v>6.964325226156054</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.796543269972974</v>
+        <v>-5.797109038608201</v>
       </c>
       <c r="G23" t="n">
-        <v>1.897149484060505</v>
+        <v>1.938940440566585</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.846456046070332</v>
       </c>
       <c r="E24" t="n">
-        <v>7.124269114370829</v>
+        <v>7.143823538452369</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.754853786809212</v>
+        <v>-5.748799697400259</v>
       </c>
       <c r="G24" t="n">
-        <v>1.970468719041668</v>
+        <v>2.006356701116204</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.826009075559014</v>
       </c>
       <c r="E25" t="n">
-        <v>7.169491183890544</v>
+        <v>7.172290096080816</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.709699609525725</v>
+        <v>-5.695094748472365</v>
       </c>
       <c r="G25" t="n">
-        <v>1.956006942701217</v>
+        <v>1.988587915849845</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.771689258483093</v>
       </c>
       <c r="E26" t="n">
-        <v>7.156146344339639</v>
+        <v>7.152464103054367</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.557518066986265</v>
+        <v>-5.559567244481856</v>
       </c>
       <c r="G26" t="n">
-        <v>1.898996444895505</v>
+        <v>1.921374601984863</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.692954072304708</v>
       </c>
       <c r="E27" t="n">
-        <v>7.015946686458222</v>
+        <v>7.01978369284113</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.455172345933793</v>
+        <v>-5.466002252648108</v>
       </c>
       <c r="G27" t="n">
-        <v>1.863695402153514</v>
+        <v>1.891319512033507</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.598911050844658</v>
       </c>
       <c r="E28" t="n">
-        <v>6.970293902751688</v>
+        <v>6.965637809389781</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.262738007552026</v>
+        <v>-5.273979647827978</v>
       </c>
       <c r="G28" t="n">
-        <v>1.811110310111347</v>
+        <v>1.834868212646613</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.495634626410755</v>
       </c>
       <c r="E29" t="n">
-        <v>6.789063973419555</v>
+        <v>6.782651442204284</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.120606706046337</v>
+        <v>-5.142612550872514</v>
       </c>
       <c r="G29" t="n">
-        <v>1.738356113741366</v>
+        <v>1.774766793032447</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.388374460304137</v>
       </c>
       <c r="E30" t="n">
-        <v>6.715943304978757</v>
+        <v>6.6907063737274</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.050131644746266</v>
+        <v>-5.067828887656169</v>
       </c>
       <c r="G30" t="n">
-        <v>1.690405214339743</v>
+        <v>1.731787357380368</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.279281634230768</v>
       </c>
       <c r="E31" t="n">
-        <v>6.443293924482466</v>
+        <v>6.4555904495041</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.853130275936136</v>
+        <v>-4.879439612510266</v>
       </c>
       <c r="G31" t="n">
-        <v>1.585487618575135</v>
+        <v>1.612816798740764</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.171316936933906</v>
       </c>
       <c r="E32" t="n">
-        <v>6.188972527671353</v>
+        <v>6.197585351359623</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.671430941142776</v>
+        <v>-4.684840022809682</v>
       </c>
       <c r="G32" t="n">
-        <v>1.446378616617626</v>
+        <v>1.482124974027344</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.064875362441798</v>
       </c>
       <c r="E33" t="n">
-        <v>5.942871201612055</v>
+        <v>5.955271390048143</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.470386699168921</v>
+        <v>-4.483017575203372</v>
       </c>
       <c r="G33" t="n">
-        <v>1.419716678429543</v>
+        <v>1.46535924179944</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.958761343511737</v>
       </c>
       <c r="E34" t="n">
-        <v>5.628299460281504</v>
+        <v>5.618498157447234</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.355455363572815</v>
+        <v>-4.35919819685386</v>
       </c>
       <c r="G34" t="n">
-        <v>1.342040659945109</v>
+        <v>1.379060179290099</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.852772765806507</v>
       </c>
       <c r="E35" t="n">
-        <v>5.297765013173047</v>
+        <v>5.310645557431044</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.252574534895025</v>
+        <v>-4.246221865651481</v>
       </c>
       <c r="G35" t="n">
-        <v>1.307961677455209</v>
+        <v>1.347526060622653</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.743607968239872</v>
       </c>
       <c r="E36" t="n">
-        <v>4.960388780710592</v>
+        <v>4.993166860351493</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.166654354865275</v>
+        <v>-4.163196230961958</v>
       </c>
       <c r="G36" t="n">
-        <v>1.220093063248142</v>
+        <v>1.262907513465948</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.630853876288486</v>
       </c>
       <c r="E37" t="n">
-        <v>4.610694122505141</v>
+        <v>4.625847961640682</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.079081400396617</v>
+        <v>-4.08709633439166</v>
       </c>
       <c r="G37" t="n">
-        <v>1.151921957835524</v>
+        <v>1.181083498355243</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.514225009086103</v>
       </c>
       <c r="E38" t="n">
-        <v>4.275507962179049</v>
+        <v>4.303015268211769</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.002381424060956</v>
+        <v>-4.001057160442501</v>
       </c>
       <c r="G38" t="n">
-        <v>1.105636973305627</v>
+        <v>1.146557741149525</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.393592026834797</v>
       </c>
       <c r="E39" t="n">
-        <v>3.956376490660589</v>
+        <v>3.954589391797317</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.875087861279126</v>
+        <v>-3.863258551646584</v>
       </c>
       <c r="G39" t="n">
-        <v>1.030037143206466</v>
+        <v>1.069192712908455</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.272669852374496</v>
       </c>
       <c r="E40" t="n">
-        <v>3.621445838750406</v>
+        <v>3.628099277900677</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.767510057892883</v>
+        <v>-3.755547153860022</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9465515933683062</v>
+        <v>0.9792960919031155</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.152946871156756</v>
       </c>
       <c r="E41" t="n">
-        <v>3.387271645545742</v>
+        <v>3.405078392062464</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.733147096049301</v>
+        <v>-3.724935055561985</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8658883164898733</v>
+        <v>0.9025837051586816</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.037490165183585</v>
       </c>
       <c r="E42" t="n">
-        <v>3.071052969968645</v>
+        <v>3.093820959898275</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.677300986596089</v>
+        <v>-3.665972473458728</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8134214883430692</v>
+        <v>0.8479749864625145</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9283211704280857</v>
       </c>
       <c r="E43" t="n">
-        <v>2.881750434741877</v>
+        <v>2.921352779159685</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.615753389347878</v>
+        <v>-3.595903305527929</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7858937416370766</v>
+        <v>0.8304514892754282</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8253274417514157</v>
       </c>
       <c r="E44" t="n">
-        <v>2.641636765903396</v>
+        <v>2.681255170850204</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.551070338824441</v>
+        <v>-3.553693315219758</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7038580195531895</v>
+        <v>0.7456489760592692</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7304205627566318</v>
       </c>
       <c r="E45" t="n">
-        <v>2.457140708991901</v>
+        <v>2.488531742946438</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.455072906871239</v>
+        <v>-3.446830205374014</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5986951357093087</v>
+        <v>0.6422454501649333</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.642922990965023</v>
       </c>
       <c r="E46" t="n">
-        <v>2.226816662602962</v>
+        <v>2.271951129237223</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.376231039986215</v>
+        <v>-3.364862375526354</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6051441681268523</v>
+        <v>0.6518277457855671</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5620670008387622</v>
       </c>
       <c r="E47" t="n">
-        <v>1.998038807142297</v>
+        <v>2.009605308118475</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.308909682562506</v>
+        <v>-3.306353138355325</v>
       </c>
       <c r="G47" t="n">
-        <v>0.512911470176059</v>
+        <v>0.5533037006110482</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4873445161530106</v>
       </c>
       <c r="E48" t="n">
-        <v>1.811736670742347</v>
+        <v>1.815531335730618</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.21887435698853</v>
+        <v>-3.217973507316439</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4077135451779963</v>
+        <v>0.4446615221665318</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4159526944565553</v>
       </c>
       <c r="E49" t="n">
-        <v>1.676905609691201</v>
+        <v>1.672297697916293</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.15414677499832</v>
+        <v>-3.15279769056232</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3506417253524662</v>
+        <v>0.3803872851085491</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3475043078229502</v>
       </c>
       <c r="E50" t="n">
-        <v>1.540024641120419</v>
+        <v>1.52930788813315</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.086164015789429</v>
+        <v>-3.083275310641566</v>
       </c>
       <c r="G50" t="n">
-        <v>0.276843594597486</v>
+        <v>0.2966462268544807</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2820349213388317</v>
       </c>
       <c r="E51" t="n">
-        <v>1.432714026534812</v>
+        <v>1.409899315066273</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.00128923019277</v>
+        <v>-2.995356324775363</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2370193228698603</v>
+        <v>0.2579301316278547</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2192014712051659</v>
       </c>
       <c r="E52" t="n">
-        <v>1.268460076355674</v>
+        <v>1.244372202951862</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.886849200779255</v>
+        <v>-2.881045509617894</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2226539097034096</v>
+        <v>0.2377128457130419</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1607016681995795</v>
       </c>
       <c r="E53" t="n">
-        <v>1.106423939226627</v>
+        <v>1.068998526512364</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.754836032543563</v>
+        <v>-2.757829861153972</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1472468059522481</v>
+        <v>0.1550712036714278</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1067882324532198</v>
       </c>
       <c r="E54" t="n">
-        <v>1.014357686758197</v>
+        <v>1.009878259215289</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.712496827979348</v>
+        <v>-2.709296402564076</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1289086019304348</v>
+        <v>0.1304635531472526</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05815587708323327</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8979757933837738</v>
+        <v>0.8571645291466938</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.727200972302889</v>
+        <v>-2.739422304847841</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09816436928017033</v>
+        <v>0.1003748820898061</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01558864655597289</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7912199970727115</v>
+        <v>0.7486435346937229</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.640240508008367</v>
+        <v>-2.644576850838366</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09120285998271765</v>
+        <v>0.08952526472626356</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.02153329397142597</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7038273585432804</v>
+        <v>0.6662428005871087</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.623761675230326</v>
+        <v>-2.631436418020188</v>
       </c>
       <c r="G57" t="n">
-        <v>0.052641529853728</v>
+        <v>0.05267949110409163</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.05187336347300302</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6610435693353828</v>
+        <v>0.6391939496549341</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.652291744950727</v>
+        <v>-2.655949895442499</v>
       </c>
       <c r="G58" t="n">
-        <v>0.009751157135194069</v>
+        <v>0.007371278747012889</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.07631032891870365</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6378974269502072</v>
+        <v>0.6130109072406684</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.61523645442751</v>
+        <v>-2.619861156755463</v>
       </c>
       <c r="G59" t="n">
-        <v>0.008916009627194294</v>
+        <v>-0.00584799666807447</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09539049199274842</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5802167670707682</v>
+        <v>0.5758103419324057</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.609795585216739</v>
+        <v>-2.618101798805919</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.02234215995107004</v>
+        <v>-0.04977500353115358</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1096487808162877</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4461653717001678</v>
+        <v>0.4425765734927142</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.625828373303007</v>
+        <v>-2.651099615684501</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.05189353331106211</v>
+        <v>-0.07602228806141927</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1214325521212701</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4075324992147236</v>
+        <v>0.4097824333228139</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.650766724719773</v>
+        <v>-2.669418109057086</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.07977607170314553</v>
+        <v>-0.1089916340022286</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1317332369188751</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3400111152025599</v>
+        <v>0.3447694119308314</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.725792025895162</v>
+        <v>-2.753234359787837</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1395548206892204</v>
+        <v>-0.173239590194575</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1424758587698331</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3195105799581109</v>
+        <v>0.306476730650569</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.738695930922614</v>
+        <v>-2.758911756789335</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1490903947709451</v>
+        <v>-0.1771919403766648</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1548754123080525</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2662348851689434</v>
+        <v>0.2467753642133123</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.750067515478656</v>
+        <v>-2.754341076240745</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.185264546271299</v>
+        <v>-0.2180207251908357</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1689602870673656</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2218056217625917</v>
+        <v>0.2027184130701423</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.838626732432723</v>
+        <v>-2.851164895413401</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1977844586508411</v>
+        <v>-0.2260904109892881</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1854475457631024</v>
       </c>
       <c r="E67" t="n">
-        <v>0.215036838813139</v>
+        <v>0.1820893935936932</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.837326559607769</v>
+        <v>-2.848138945744993</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2045707621773847</v>
+        <v>-0.2267985343133788</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2039621718787279</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1958664073795077</v>
+        <v>0.1645483758295161</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.934142348515925</v>
+        <v>-2.943939271205922</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2639786589483688</v>
+        <v>-0.2964209275283601</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2243658138192616</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1368775444106145</v>
+        <v>0.1177888756700742</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.944304283228649</v>
+        <v>-2.949943718979784</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2390162167381028</v>
+        <v>-0.2638092933698234</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2450369069534884</v>
       </c>
       <c r="E70" t="n">
-        <v>0.07221785465663184</v>
+        <v>0.03222421735046076</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.035176946382761</v>
+        <v>-3.056813399041937</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.291465524307816</v>
+        <v>-0.3193334622189903</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2640441159033078</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03839584063073183</v>
+        <v>-0.004180621748256736</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.121189109442238</v>
+        <v>-3.145214930802186</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3537905971644356</v>
+        <v>-0.3872490592156994</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2802069196438773</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03953759823782244</v>
+        <v>-0.01533392911470829</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.226151966697664</v>
+        <v>-3.254198760499975</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3810540751659737</v>
+        <v>-0.4118669300765109</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2933289349590525</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01002272608010309</v>
+        <v>-0.04838795784479032</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.179596873270949</v>
+        <v>-3.197358358296854</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3991499112046961</v>
+        <v>-0.4430462570578662</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3031703914940649</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.002082532641620935</v>
+        <v>-0.08553450137368944</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.241506562445706</v>
+        <v>-3.259756433558019</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4548843269789539</v>
+        <v>-0.4973469056068516</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3096499658558384</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03135256864018827</v>
+        <v>-0.04517293194860936</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.238368919098343</v>
+        <v>-3.262422481372018</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5081760822971214</v>
+        <v>-0.546753472955111</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3128866953284992</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.001129121238257555</v>
+        <v>-0.07749255648896432</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.189292322618629</v>
+        <v>-3.194959499283491</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5110567571804843</v>
+        <v>-0.5629950479183794</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3130226298579565</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03630651181264148</v>
+        <v>-0.0504656062781534</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.212167626082941</v>
+        <v>-3.208876677686033</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5197820045717546</v>
+        <v>-0.5586689254250169</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3112861156517098</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1080123936533495</v>
+        <v>0.03665692335445957</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.157718782652728</v>
+        <v>-3.142148099787232</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5336188803292964</v>
+        <v>-0.5812529492951927</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3075942023503863</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1607537108412444</v>
+        <v>0.09441496578271678</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.080101896115976</v>
+        <v>-3.057011235558255</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5129533596505746</v>
+        <v>-0.5556145048188359</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3029302928941848</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2631016219658533</v>
+        <v>0.1866126225793284</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.03053910362199</v>
+        <v>-3.006291354952223</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5656129141453787</v>
+        <v>-0.6105955357781848</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2969727763632085</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3462236198293764</v>
+        <v>0.2736782103363959</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.939524815803059</v>
+        <v>-2.898076240574298</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5171101165653917</v>
+        <v>-0.5480733564292926</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2902402463925448</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4431532924886232</v>
+        <v>0.3560833245872829</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.760750687359835</v>
+        <v>-2.732839678029979</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5203952247699363</v>
+        <v>-0.5490209276402922</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2820990420149621</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7385765031069075</v>
+        <v>0.6488565479205679</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.664712374060088</v>
+        <v>-2.638865872730777</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4907007666970352</v>
+        <v>-0.5157435115523011</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2723281384153258</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9913487888935668</v>
+        <v>0.9064601328400442</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.46190366396837</v>
+        <v>-2.452649149144145</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5043332357218497</v>
+        <v>-0.5223224882499358</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2604772904214311</v>
       </c>
       <c r="E85" t="n">
-        <v>1.191937495863058</v>
+        <v>1.106394738264809</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.242242348787338</v>
+        <v>-2.230405008890295</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5066926734367582</v>
+        <v>-0.5190855616323912</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2472460012328649</v>
       </c>
       <c r="E86" t="n">
-        <v>1.497902253697704</v>
+        <v>1.420954799210633</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.131377247124413</v>
+        <v>-2.122375320619915</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4611844344912249</v>
+        <v>-0.4633788867718607</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2342665049451122</v>
       </c>
       <c r="E87" t="n">
-        <v>1.789821348897807</v>
+        <v>1.713808325188918</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.947534561733599</v>
+        <v>-1.949130394296962</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4126086345066925</v>
+        <v>-0.4287392458150519</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2216899987147415</v>
       </c>
       <c r="E88" t="n">
-        <v>2.006785955254931</v>
+        <v>1.923230323108408</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.710747612470253</v>
+        <v>-1.71472770356607</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4293831270231426</v>
+        <v>-0.4374396723887767</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2097999740651324</v>
       </c>
       <c r="E89" t="n">
-        <v>2.197931071172424</v>
+        <v>2.119180457293082</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.559425308232294</v>
+        <v>-1.572374474750563</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3617303386827971</v>
+        <v>-0.355349928525526</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2006129148299012</v>
       </c>
       <c r="E90" t="n">
-        <v>2.305926448312668</v>
+        <v>2.23376941161187</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.364368723479255</v>
+        <v>-1.388221529140431</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3210052172830807</v>
+        <v>-0.3124785364321739</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1961990687139304</v>
       </c>
       <c r="E91" t="n">
-        <v>2.336026799754842</v>
+        <v>2.278096471651858</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.175698389075851</v>
+        <v>-1.200221356810754</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2881468349971805</v>
+        <v>-0.2881190940834532</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1991428885059162</v>
       </c>
       <c r="E92" t="n">
-        <v>2.217742463717965</v>
+        <v>2.180480576389884</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.0279079411698</v>
+        <v>-1.053239775547066</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2652270000660957</v>
+        <v>-0.2621988603255511</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2121094944895244</v>
       </c>
       <c r="E93" t="n">
-        <v>2.129922031097898</v>
+        <v>2.098460914834997</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8538088867136649</v>
+        <v>-0.8645957220092985</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2298456546791052</v>
+        <v>-0.2335001550506497</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2360311848079699</v>
       </c>
       <c r="E94" t="n">
-        <v>1.984688127399027</v>
+        <v>1.961734711361852</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.790609245050591</v>
+        <v>-0.8137568474838576</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1712115833963028</v>
+        <v>-0.1831299559623905</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2697880506507566</v>
       </c>
       <c r="E95" t="n">
-        <v>1.844311803698611</v>
+        <v>1.84360368037452</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6067556092990949</v>
+        <v>-0.6161364182831833</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1645260231880319</v>
+        <v>-0.1663087419070314</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3092493137929488</v>
       </c>
       <c r="E96" t="n">
-        <v>1.682402690753472</v>
+        <v>1.685267305107835</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4737977899485852</v>
+        <v>-0.4814834830991286</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1306967089216773</v>
+        <v>-0.1337540496240401</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3499207697943517</v>
       </c>
       <c r="E97" t="n">
-        <v>1.541062735313056</v>
+        <v>1.547431465085599</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.319418145008263</v>
+        <v>-0.3245531341439889</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1127527178844094</v>
+        <v>-0.1201726822824074</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3890242676704702</v>
       </c>
       <c r="E98" t="n">
-        <v>1.414676592419726</v>
+        <v>1.403077970385547</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1706874261316666</v>
+        <v>-0.1840906676062084</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1404936316116747</v>
+        <v>-0.1408148421916746</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4244599034153133</v>
       </c>
       <c r="E99" t="n">
-        <v>1.292930482359304</v>
+        <v>1.271450254845855</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.03578482272406643</v>
+        <v>-0.03901444910115647</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1810800484427547</v>
+        <v>-0.1843490961182993</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4562152809122462</v>
       </c>
       <c r="E100" t="n">
-        <v>1.249340746605225</v>
+        <v>1.23010023286323</v>
       </c>
       <c r="F100" t="n">
-        <v>0.06040752564927138</v>
+        <v>0.05321532875345512</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1959535583448416</v>
+        <v>-0.197898342401932</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4828799722017071</v>
       </c>
       <c r="E101" t="n">
-        <v>1.181590135042788</v>
+        <v>1.143808470594344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1064457620518045</v>
+        <v>0.09934116804144275</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1802069396843913</v>
+        <v>-0.1648326332871227</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5019753535241503</v>
       </c>
       <c r="E102" t="n">
-        <v>1.143027344865708</v>
+        <v>1.116241302589897</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1456757942064303</v>
+        <v>0.1256059731487993</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2433963610108289</v>
+        <v>-0.2364888734927398</v>
       </c>
     </row>
   </sheetData>
